--- a/biology/Microbiologie/Mycobacterium_avium/Mycobacterium_avium.xlsx
+++ b/biology/Microbiologie/Mycobacterium_avium/Mycobacterium_avium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycobacterium avium est une mycobactérie et une espèce opportuniste chez l'homme.
 C'est en fait un complexe de mycobactéries non tuberculeuses qui vont causer 2 types d'infections chez l'homme :
-Chez les enfants : Adénopathies essentiellement cervicales[1]
-Chez l'immunodéprimé (Co infection VIH en particulier) : pneumonies[2].
-Les chercheurs pensent que cette bactérie vit dans les sols autour de l'homme mais on ne sait pas vraiment où en particulier[2].
+Chez les enfants : Adénopathies essentiellement cervicales
+Chez l'immunodéprimé (Co infection VIH en particulier) : pneumonies.
+Les chercheurs pensent que cette bactérie vit dans les sols autour de l'homme mais on ne sait pas vraiment où en particulier.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Chez la souris</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez la souris, certaines souches peuvent être hautement virulentes et déclencher une pathologie similaire à la tuberculose humaine. Il se forme alors des granulomes avec un centre nécrotique occupé par des cellules multinucléées géantes et des macrophages infectés, entourés par une couronne de lymphocytes T activés[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez la souris, certaines souches peuvent être hautement virulentes et déclencher une pathologie similaire à la tuberculose humaine. Il se forme alors des granulomes avec un centre nécrotique occupé par des cellules multinucléées géantes et des macrophages infectés, entourés par une couronne de lymphocytes T activés.
 </t>
         </is>
       </c>
